--- a/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:11:56+00:00</t>
+    <t>2024-02-07T14:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,58 +746,67 @@
 </t>
   </si>
   <si>
+    <t>Intended recipient of the SubmissionSet</t>
+  </si>
+  <si>
+    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.intendedRecipient</t>
+  </si>
+  <si>
+    <t>List.extension:isArchived</t>
+  </si>
+  <si>
+    <t>isArchived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-is-archived}
+</t>
+  </si>
+  <si>
+    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
+  </si>
+  <si>
+    <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
+  </si>
+  <si>
+    <t>statut : [1..1] Code</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t>PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient}
+</t>
+  </si>
+  <si>
     <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
   </si>
   <si>
-    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-intendedRecipient</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Group|Device|Location) &lt;&lt;contained&gt;&gt;
+    <t>Représente le destinataire du lot de soumission</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>List.extension:isArchived</t>
-  </si>
-  <si>
-    <t>isArchived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-is-archived}
-</t>
-  </si>
-  <si>
-    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
-  </si>
-  <si>
-    <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
-  </si>
-  <si>
-    <t>statut : [1..1] Code</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -1165,6 +1174,13 @@
   </si>
   <si>
     <t>List.source.extension:authorOrg.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -1770,7 +1786,7 @@
   <cols>
     <col min="1" max="1" width="59.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.24609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1778,7 +1794,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="192.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="254.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4554,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -4641,7 +4657,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4649,12 +4665,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4675,13 +4693,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4732,22 +4750,22 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -4756,17 +4774,19 @@
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4775,10 +4795,10 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4787,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4832,19 +4852,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4873,10 +4893,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4884,7 +4904,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4899,24 +4919,22 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -4958,10 +4976,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4973,7 +4991,7 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4987,10 +5005,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4998,10 +5016,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5013,13 +5031,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5058,32 +5076,34 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -5097,14 +5117,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5125,22 +5143,24 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>78</v>
@@ -5182,10 +5202,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -5194,7 +5214,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>187</v>
@@ -5211,14 +5231,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5239,13 +5257,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5296,22 +5314,22 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -5320,15 +5338,15 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5408,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5437,10 +5455,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5463,13 +5481,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5508,7 +5526,7 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5518,7 +5536,7 @@
         <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5533,13 +5551,13 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5547,13 +5565,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
@@ -5575,13 +5593,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5632,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5647,7 +5665,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5656,18 +5674,18 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
@@ -5689,13 +5707,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5746,7 +5764,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5761,7 +5779,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5770,15 +5788,15 @@
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5804,13 +5822,13 @@
         <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5821,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -5836,13 +5854,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5860,7 +5878,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -5875,24 +5893,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5918,16 +5936,16 @@
         <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5937,7 +5955,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>78</v>
@@ -5952,13 +5970,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5994,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -5991,13 +6009,13 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6005,10 +6023,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6034,14 +6052,14 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6054,7 +6072,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6090,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6105,24 +6123,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6148,16 +6166,16 @@
         <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6182,11 +6200,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6204,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6219,13 +6237,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6233,10 +6251,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6259,19 +6277,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6320,7 +6338,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6335,24 +6353,24 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6375,13 +6393,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6432,7 +6450,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6447,10 +6465,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>105</v>
@@ -6461,10 +6479,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6487,19 +6505,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6548,7 +6566,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6563,28 +6581,28 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6603,19 +6621,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6664,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6679,13 +6697,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6693,10 +6711,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6805,10 +6823,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6919,13 +6937,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -6947,13 +6965,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7028,15 +7046,15 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7145,10 +7163,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7257,10 +7275,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7300,7 +7318,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -7371,10 +7389,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7397,7 +7415,7 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>215</v>
@@ -7481,13 +7499,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7509,7 +7527,7 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>215</v>
@@ -7595,10 +7613,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7624,13 +7642,13 @@
         <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7680,7 +7698,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7689,7 +7707,7 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
@@ -7709,10 +7727,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7738,13 +7756,13 @@
         <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7773,10 +7791,10 @@
         <v>146</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7812,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7823,10 +7841,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7849,16 +7867,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7908,7 +7926,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7923,7 +7941,7 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -7937,10 +7955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7966,13 +7984,13 @@
         <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8022,7 +8040,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8051,10 +8069,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8080,16 +8098,16 @@
         <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8117,28 +8135,28 @@
         <v>168</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8153,7 +8171,7 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8167,10 +8185,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8193,13 +8211,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8250,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8265,24 +8283,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8305,16 +8323,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8364,7 +8382,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8373,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8393,10 +8411,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8505,10 +8523,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8619,14 +8637,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8648,16 +8666,16 @@
         <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8706,7 +8724,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8735,10 +8753,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8764,16 +8782,16 @@
         <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8801,28 +8819,28 @@
         <v>154</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8837,7 +8855,7 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
@@ -8851,10 +8869,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8877,71 +8895,71 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8949,13 +8967,13 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -8969,10 +8987,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8995,17 +9013,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9054,7 +9072,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9069,7 +9087,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9083,10 +9101,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9109,13 +9127,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9166,7 +9184,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9181,24 +9199,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9224,16 +9242,16 @@
         <v>214</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9261,29 +9279,29 @@
         <v>168</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9291,13 +9309,13 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>

--- a/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:52:46+00:00</t>
+    <t>2024-02-07T15:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-deps/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:04:14+00:00</t>
+    <t>2024-02-07T15:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
